--- a/Знакомство с базами данных (лекции)/Lection_02/Рабочий файл.xlsx
+++ b/Знакомство с базами данных (лекции)/Lection_02/Рабочий файл.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDisk\РАБОЧЕЕ\IT\000_GB_4408_25-03-2023\Знакомство с базами данных (лекции)\Lection_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4352BAA9-CF5F-4A79-BD54-50AB3CA8B0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4084085F-BBCD-4373-8718-DF9ACEB1ABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FD4F01-FB88-4D30-9E0C-F8E29A71ADA0}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
